--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-short-name.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-organization-short-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Libellé court de l'organisation
--The Organization short name</t>
+    <t>Libellé court de l'organisation</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -134,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Organization</t>
+    <t>element:https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization#Organization</t>
   </si>
   <si>
     <t>ID</t>
